--- a/src/controllers/report/template_visualOps_report.xlsx
+++ b/src/controllers/report/template_visualOps_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claus\Documents\Arquivos de programação\Estudo\SPTECH\2°Semestre\Projeto PI\front-VisualOps\public\assets\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claus\Documents\Arquivos de programação\Estudo\SPTECH\2°Semestre\Projeto PI\front-VisualOps\src\controllers\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDA2841-7B34-436E-BBF0-8272C3266394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED9D7ED-4F7F-47B9-8040-96951E65AF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{31F7E524-E590-4372-ACE9-53C5D18A9B66}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="11">
   <si>
     <r>
       <t xml:space="preserve">              </t>
@@ -267,26 +267,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -301,20 +296,25 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3206,235 +3206,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -3465,31 +3465,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -3500,21 +3500,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -3522,28 +3522,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -3551,24 +3551,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -3576,24 +3576,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -3601,24 +3601,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -3626,24 +3626,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -3651,24 +3651,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -3676,17 +3676,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -3701,17 +3701,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -3726,17 +3726,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -3751,17 +3751,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -3776,17 +3776,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -3801,17 +3801,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -3826,17 +3826,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3851,17 +3851,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -3876,17 +3876,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -3901,17 +3901,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3926,17 +3926,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -3951,17 +3951,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -3976,17 +3976,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -4001,17 +4001,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -4026,85 +4026,55 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:B18"/>
@@ -4121,48 +4091,78 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4184,235 +4184,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -4443,31 +4443,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -4478,21 +4478,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -4500,28 +4500,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -4529,24 +4529,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -4554,24 +4554,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -4579,24 +4579,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -4604,24 +4604,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -4629,24 +4629,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -4654,17 +4654,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -4679,17 +4679,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -4704,17 +4704,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -4729,17 +4729,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -4754,17 +4754,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -4779,17 +4779,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -4804,17 +4804,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -4829,17 +4829,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -4854,17 +4854,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -4879,17 +4879,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -4904,17 +4904,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -4929,17 +4929,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -4954,17 +4954,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -4979,17 +4979,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -5004,85 +5004,55 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:B18"/>
@@ -5099,48 +5069,78 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5162,235 +5162,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -5421,31 +5421,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -5456,21 +5456,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -5478,28 +5478,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -5507,24 +5507,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -5532,24 +5532,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -5557,24 +5557,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -5582,24 +5582,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -5607,24 +5607,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -5632,17 +5632,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -5657,17 +5657,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -5682,17 +5682,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -5707,17 +5707,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -5732,17 +5732,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -5757,17 +5757,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -5782,17 +5782,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -5807,17 +5807,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -5832,17 +5832,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -5857,17 +5857,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -5882,17 +5882,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -5907,17 +5907,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -5932,17 +5932,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -5957,17 +5957,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -5982,85 +5982,55 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:B18"/>
@@ -6077,48 +6047,78 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6131,7 +6131,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6140,235 +6140,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -6399,31 +6397,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -6434,21 +6432,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -6456,28 +6454,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -6485,24 +6483,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -6510,24 +6508,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -6535,24 +6533,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -6560,24 +6558,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -6585,24 +6583,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -6610,17 +6608,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -6635,17 +6633,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -6660,17 +6658,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -6685,17 +6683,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -6710,17 +6708,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -6735,17 +6733,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -6760,17 +6758,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -6785,17 +6783,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -6810,17 +6808,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -6835,17 +6833,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -6860,17 +6858,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -6885,17 +6883,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -6910,17 +6908,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -6935,17 +6933,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -6960,85 +6958,55 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:B18"/>
@@ -7055,48 +7023,78 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7118,235 +7116,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -7377,31 +7375,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -7412,21 +7410,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -7434,28 +7432,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -7463,24 +7461,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -7488,24 +7486,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -7513,24 +7511,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -7538,24 +7536,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -7563,24 +7561,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -7588,17 +7586,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -7613,17 +7611,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -7638,17 +7636,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -7663,17 +7661,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -7688,17 +7686,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -7713,17 +7711,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -7738,17 +7736,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -7763,17 +7761,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -7788,17 +7786,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -7813,17 +7811,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -7838,17 +7836,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -7863,17 +7861,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -7888,17 +7886,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -7913,17 +7911,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -7938,85 +7936,55 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:B18"/>
@@ -8033,48 +8001,78 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8096,235 +8094,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -8355,31 +8353,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -8390,21 +8388,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -8412,28 +8410,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -8441,24 +8439,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -8466,24 +8464,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -8491,24 +8489,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -8516,24 +8514,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="19"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -8541,24 +8539,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -8566,17 +8564,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -8591,17 +8589,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -8616,17 +8614,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -8641,17 +8639,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -8666,17 +8664,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -8691,17 +8689,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -8716,17 +8714,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -8741,17 +8739,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -8766,17 +8764,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -8791,17 +8789,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -8816,17 +8814,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -8841,17 +8839,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -8866,17 +8864,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -8891,17 +8889,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -8916,85 +8914,55 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A18:B18"/>
@@ -9011,48 +8979,78 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/controllers/report/template_visualOps_report.xlsx
+++ b/src/controllers/report/template_visualOps_report.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claus\Documents\Arquivos de programação\Estudo\SPTECH\2°Semestre\Projeto PI\front-VisualOps\src\controllers\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED9D7ED-4F7F-47B9-8040-96951E65AF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12216C3C-748E-4FD4-9E66-FB22CA31CA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{31F7E524-E590-4372-ACE9-53C5D18A9B66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{31F7E524-E590-4372-ACE9-53C5D18A9B66}"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="10" r:id="rId1"/>
     <sheet name="VOLUME" sheetId="9" r:id="rId2"/>
     <sheet name="RAM" sheetId="8" r:id="rId3"/>
     <sheet name="HDD" sheetId="7" r:id="rId4"/>
-    <sheet name="CPU" sheetId="5" r:id="rId5"/>
-    <sheet name="GERAL" sheetId="4" r:id="rId6"/>
+    <sheet name="STORAGE" sheetId="11" r:id="rId5"/>
+    <sheet name="CPU" sheetId="5" r:id="rId6"/>
+    <sheet name="GERAL" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
   <si>
     <r>
       <t xml:space="preserve">              </t>
@@ -86,6 +87,33 @@
   </si>
   <si>
     <t>INFORMAÇÕES DA HDD</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>CAPTURA</t>
+  </si>
+  <si>
+    <t>UNIDADE</t>
+  </si>
+  <si>
+    <t>LINHAS</t>
   </si>
 </sst>
 </file>
@@ -137,7 +165,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +190,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -254,11 +288,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -267,21 +312,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,26 +348,30 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2901,6 +2957,58 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE91665A-42D3-4816-B40E-56B589D1FEDF}" name="Tabela8" displayName="Tabela8" ref="A2:D17" totalsRowShown="0">
+  <autoFilter ref="A2:D17" xr:uid="{BE91665A-42D3-4816-B40E-56B589D1FEDF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C54B2807-A9A3-43D1-AB68-6112FA254C95}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{60348743-26E4-4AE7-97E0-DBCF362435CF}" name="DATA"/>
+    <tableColumn id="3" xr3:uid="{B108FA14-7C17-4DCC-A485-C299ED130EFD}" name="CAPTURA"/>
+    <tableColumn id="4" xr3:uid="{26D1CFCA-AFEB-4DA4-AEA7-710DF0F8970B}" name="UNIDADE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F3830C1B-2AEA-44FF-89D9-10052E0F40AD}" name="Tabela810" displayName="Tabela810" ref="F2:I17" totalsRowShown="0">
+  <autoFilter ref="F2:I17" xr:uid="{F3830C1B-2AEA-44FF-89D9-10052E0F40AD}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DAC7884D-3035-4289-8E96-89F2AA2E200B}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{C9AD74E3-B4FC-4FF6-AE52-C08210931D2B}" name="DATA"/>
+    <tableColumn id="3" xr3:uid="{21469EB0-C059-4D34-AE49-FF251D710C1A}" name="CAPTURA"/>
+    <tableColumn id="4" xr3:uid="{33B43BA9-F1A4-48B1-96FD-D548E838499C}" name="UNIDADE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE5D68B7-ACE4-4CD3-834B-22A901569160}" name="Tabela811" displayName="Tabela811" ref="K2:N17" totalsRowShown="0">
+  <autoFilter ref="K2:N17" xr:uid="{BE5D68B7-ACE4-4CD3-834B-22A901569160}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D616C95B-30AD-42F1-AC1F-79C06DFBE04D}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{100DE779-19E3-401B-8DBA-A00D3BB48778}" name="DATA"/>
+    <tableColumn id="3" xr3:uid="{C3188E54-468D-4A67-9819-1854A10E1FD8}" name="CAPTURA"/>
+    <tableColumn id="4" xr3:uid="{CA25F5D4-DC45-48AE-85A5-FC9927DB828E}" name="UNIDADE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A01C549-49A8-4247-B57C-412C4EF20F38}" name="Tabela812" displayName="Tabela812" ref="P2:S17" totalsRowShown="0">
+  <autoFilter ref="P2:S17" xr:uid="{5A01C549-49A8-4247-B57C-412C4EF20F38}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F9735784-5C50-48AA-9F94-73DB208482E9}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{11F4A82C-C9AA-4FA7-816A-FFF31C44A296}" name="DATA"/>
+    <tableColumn id="3" xr3:uid="{09B9F2BB-DFC6-493F-BB62-17F1EE90462E}" name="CAPTURA"/>
+    <tableColumn id="4" xr3:uid="{E40DCA40-B490-41F4-87C3-801F12632C22}" name="UNIDADE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3206,235 +3314,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -3465,31 +3573,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -3500,21 +3608,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -3522,28 +3630,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="13" t="s">
+      <c r="N13" s="15"/>
+      <c r="O13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -3551,24 +3659,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -3576,24 +3684,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -3601,24 +3709,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -3626,24 +3734,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="21"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -3651,24 +3759,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="21"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -3676,17 +3784,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -3701,17 +3809,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -3726,17 +3834,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -3751,17 +3859,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -3776,17 +3884,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -3801,17 +3909,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -3826,17 +3934,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3851,17 +3959,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -3876,17 +3984,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -3901,17 +4009,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3926,17 +4034,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -3951,17 +4059,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -3976,17 +4084,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -4001,17 +4109,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -4026,23 +4134,117 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="A14:B14"/>
@@ -4059,110 +4261,16 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4174,8 +4282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F00418E-696C-48FD-85A4-CAC36A9332C7}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:W6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4184,235 +4292,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -4443,31 +4551,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -4478,21 +4586,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -4500,28 +4608,40 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="D13" s="19" t="e">
+        <f>FLOOR((ROW()-1)/$M$22, 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="e">
+        <f>FLOOR((ROW()-1)/$M$22, 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="e">
+        <f>FLOOR((ROW()-1)/$M$22, 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19" t="e">
+        <f>FLOOR((ROW()-1)/$M$22, 1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="19"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="13" t="s">
+      <c r="N13" s="15"/>
+      <c r="O13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -4529,24 +4649,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -4554,24 +4674,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -4579,24 +4699,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -4604,24 +4724,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="21"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -4629,24 +4749,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="21"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -4654,17 +4774,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -4679,17 +4799,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -4704,19 +4824,21 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="M21" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -4729,19 +4851,19 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -4754,17 +4876,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -4779,17 +4901,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -4804,17 +4926,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -4829,17 +4951,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -4854,17 +4976,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -4879,17 +5001,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -4904,17 +5026,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -4929,17 +5051,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -4954,17 +5076,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -4979,17 +5101,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -5004,23 +5126,117 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="A14:B14"/>
@@ -5037,110 +5253,16 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5162,235 +5284,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -5421,31 +5543,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -5456,21 +5578,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -5478,28 +5600,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="13" t="s">
+      <c r="N13" s="15"/>
+      <c r="O13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -5507,24 +5629,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -5532,24 +5654,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -5557,24 +5679,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -5582,24 +5704,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="21"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -5607,24 +5729,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="21"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -5632,17 +5754,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -5657,17 +5779,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -5682,17 +5804,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -5707,17 +5829,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -5732,17 +5854,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -5757,17 +5879,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -5782,17 +5904,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -5807,17 +5929,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -5832,17 +5954,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -5857,17 +5979,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -5882,17 +6004,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -5907,17 +6029,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -5932,17 +6054,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -5957,17 +6079,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -5982,23 +6104,117 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="A14:B14"/>
@@ -6015,110 +6231,16 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6130,7 +6252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B66727-C309-4595-850B-B99EFF6B3ECC}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:W9"/>
     </sheetView>
   </sheetViews>
@@ -6140,233 +6262,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -6397,31 +6519,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -6432,21 +6554,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -6454,28 +6576,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="13" t="s">
+      <c r="N13" s="15"/>
+      <c r="O13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -6483,24 +6605,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -6508,24 +6630,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -6533,24 +6655,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -6558,24 +6680,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="21"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -6583,24 +6705,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="21"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -6608,17 +6730,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -6633,17 +6755,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -6658,17 +6780,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -6683,17 +6805,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -6708,17 +6830,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -6733,17 +6855,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -6758,17 +6880,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -6783,17 +6905,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -6808,17 +6930,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -6833,17 +6955,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -6858,17 +6980,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -6883,17 +7005,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -6908,17 +7030,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -6933,17 +7055,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -6958,23 +7080,117 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="A14:B14"/>
@@ -6991,110 +7207,16 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7103,6 +7225,109 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C3AD96-4E33-42F0-BA72-D44146505A26}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="F1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+      <c r="P1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5F8091-CE23-4833-94C0-9D665CB885FD}">
   <dimension ref="A1:W33"/>
   <sheetViews>
@@ -7116,235 +7341,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -7375,31 +7600,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -7410,21 +7635,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -7432,28 +7657,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="13" t="s">
+      <c r="N13" s="15"/>
+      <c r="O13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -7461,24 +7686,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -7486,24 +7711,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -7511,24 +7736,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -7536,24 +7761,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="21"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -7561,24 +7786,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="21"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -7586,17 +7811,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -7611,17 +7836,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -7636,17 +7861,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -7661,17 +7886,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -7686,17 +7911,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -7711,17 +7936,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -7736,17 +7961,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -7761,17 +7986,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -7786,17 +8011,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -7811,17 +8036,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -7836,17 +8061,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -7861,17 +8086,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -7886,17 +8111,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -7911,17 +8136,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -7936,23 +8161,117 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="A14:B14"/>
@@ -7969,110 +8288,16 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8080,7 +8305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE328A4B-CE71-4533-94DF-193C874330A6}">
   <dimension ref="A1:W33"/>
   <sheetViews>
@@ -8094,235 +8319,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -8353,31 +8578,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -8388,21 +8613,21 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -8410,28 +8635,28 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="13" t="s">
+      <c r="N13" s="15"/>
+      <c r="O13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -8439,24 +8664,24 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -8464,24 +8689,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -8489,24 +8714,24 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="12"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -8514,24 +8739,24 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="21"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -8539,24 +8764,24 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="21"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -8564,17 +8789,17 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -8589,17 +8814,17 @@
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -8614,17 +8839,17 @@
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -8639,17 +8864,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -8664,17 +8889,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -8689,17 +8914,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -8714,17 +8939,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -8739,17 +8964,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -8764,17 +8989,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -8789,17 +9014,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -8814,17 +9039,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -8839,17 +9064,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -8864,17 +9089,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -8889,17 +9114,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -8914,23 +9139,117 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="A14:B14"/>
@@ -8947,110 +9266,16 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A1:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:W9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="M11:R12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/controllers/report/template_visualOps_report.xlsx
+++ b/src/controllers/report/template_visualOps_report.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claus\Documents\front-VisualOps\src\controllers\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1B7CE2-8EF8-464A-8422-F466DDF2440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E785F3-3598-4BB0-8BE1-24ED768BF12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31F7E524-E590-4372-ACE9-53C5D18A9B66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{31F7E524-E590-4372-ACE9-53C5D18A9B66}"/>
   </bookViews>
   <sheets>
-    <sheet name="APP" sheetId="10" r:id="rId1"/>
-    <sheet name="VOLUME" sheetId="9" r:id="rId2"/>
-    <sheet name="RAM" sheetId="8" r:id="rId3"/>
-    <sheet name="HDD" sheetId="7" r:id="rId4"/>
-    <sheet name="CPU" sheetId="5" r:id="rId5"/>
-    <sheet name="STORAGE" sheetId="11" r:id="rId6"/>
+    <sheet name="VOLUME" sheetId="9" r:id="rId1"/>
+    <sheet name="RAM" sheetId="8" r:id="rId2"/>
+    <sheet name="HDD" sheetId="7" r:id="rId3"/>
+    <sheet name="CPU" sheetId="5" r:id="rId4"/>
+    <sheet name="STORAGE" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <r>
       <t xml:space="preserve">              </t>
@@ -98,6 +97,15 @@
   </si>
   <si>
     <t>UNIDADE</t>
+  </si>
+  <si>
+    <t>PÁGINA</t>
+  </si>
+  <si>
+    <t>LINHAS</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
   </si>
 </sst>
 </file>
@@ -311,20 +319,41 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -339,29 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,433 +393,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>30249</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31EFEB7-81CC-4C78-A059-A736B5919309}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="167640" y="7620"/>
-          <a:ext cx="1096356" cy="1084811"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo: Cantos Arredondados 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F48F29C-A070-4E2A-907C-C9DA146B4832}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="144780" y="1767840"/>
-          <a:ext cx="1059180" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>GERAL</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo: Cantos Arredondados 3">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1835419F-3D71-4152-8530-A57FC95D04DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="137160" y="2141220"/>
-          <a:ext cx="1059180" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>CPU</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Retângulo: Cantos Arredondados 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50194578-314B-4604-A194-6C4C0B7E7317}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="137160" y="2506980"/>
-          <a:ext cx="1059180" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>HDD</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Retângulo: Cantos Arredondados 5">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E3712A-9417-42E0-A3D3-6E9A7B4CCE82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="129540" y="2880360"/>
-          <a:ext cx="1059180" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" i="1"/>
-            <a:t>RAM</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Retângulo: Cantos Arredondados 6">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E56C967-8455-4317-8C3A-8A13D75C53B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="129540" y="3268980"/>
-          <a:ext cx="1059180" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" i="0"/>
-            <a:t>VOLUME</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Retângulo: Cantos Arredondados 7">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225727EA-621F-419D-8655-629D9DAA763A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="121920" y="3672840"/>
-          <a:ext cx="1059180" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" i="0"/>
-            <a:t>APP</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1662,7 +1241,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2511,7 +2090,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3360,7 +2939,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4256,6 +3835,19 @@
     <tableColumn id="2" xr3:uid="{11F4A82C-C9AA-4FA7-816A-FFF31C44A296}" name="DATA"/>
     <tableColumn id="3" xr3:uid="{09B9F2BB-DFC6-493F-BB62-17F1EE90462E}" name="CAPTURA"/>
     <tableColumn id="4" xr3:uid="{E40DCA40-B490-41F4-87C3-801F12632C22}" name="UNIDADE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E6F77110-214C-4914-B4AE-66EA63915BA3}" name="Tabela8127" displayName="Tabela8127" ref="U2:X17" totalsRowShown="0">
+  <autoFilter ref="U2:X17" xr:uid="{E6F77110-214C-4914-B4AE-66EA63915BA3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{70E07ED3-2DFF-4216-A7FC-B9E21C7500F0}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{1E252638-40EC-4DE5-B9F7-6ECFD7F3E807}" name="DATA"/>
+    <tableColumn id="3" xr3:uid="{2CD44C34-6C0A-49C1-BF05-2DDEBF0F3E51}" name="CAPTURA"/>
+    <tableColumn id="4" xr3:uid="{656B51E5-AA10-44EE-8B80-88562DB51CB2}" name="UNIDADE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4551,255 +4143,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A603228-731E-466B-AFAE-8C1A9A06057E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F00418E-696C-48FD-85A4-CAC36A9332C7}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.796875" style="4"/>
-    <col min="3" max="4" width="8.796875" style="19"/>
-    <col min="5" max="5" width="13.09765625" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="19"/>
+    <col min="3" max="4" width="8.796875" style="5"/>
+    <col min="5" max="5" width="13.09765625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-    </row>
-    <row r="7" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="22" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+    </row>
+    <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-    </row>
-    <row r="8" spans="1:23" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+    </row>
+    <row r="8" spans="1:23" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-    </row>
-    <row r="9" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+    </row>
+    <row r="9" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4826,31 +4418,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -4859,239 +4451,243 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="M19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -5106,17 +4702,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -5131,17 +4727,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -5156,17 +4752,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -5181,17 +4777,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -5206,17 +4802,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -5231,17 +4827,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -5256,17 +4852,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -5281,17 +4877,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -5306,17 +4902,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -5331,17 +4927,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -5356,17 +4952,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -5381,10 +4977,10 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="130">
@@ -5526,255 +5122,255 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F00418E-696C-48FD-85A4-CAC36A9332C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BBFC00-AD06-4347-A42C-E1FC54A0CBB3}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.796875" style="4"/>
-    <col min="3" max="4" width="8.796875" style="19"/>
-    <col min="5" max="5" width="13.09765625" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="19"/>
+    <col min="3" max="4" width="8.796875" style="5"/>
+    <col min="5" max="5" width="13.09765625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-    </row>
-    <row r="7" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="22" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+    </row>
+    <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-    </row>
-    <row r="8" spans="1:23" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+    </row>
+    <row r="8" spans="1:23" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-    </row>
-    <row r="9" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+    </row>
+    <row r="9" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -5801,31 +5397,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -5834,239 +5430,239 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -6081,17 +5677,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -6106,17 +5702,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -6131,17 +5727,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -6156,17 +5752,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -6181,17 +5777,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -6206,17 +5802,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -6231,17 +5827,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -6256,17 +5852,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -6281,17 +5877,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -6306,17 +5902,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -6331,17 +5927,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -6356,10 +5952,10 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="130">
@@ -6501,255 +6097,255 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BBFC00-AD06-4347-A42C-E1FC54A0CBB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B66727-C309-4595-850B-B99EFF6B3ECC}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.796875" style="4"/>
-    <col min="3" max="4" width="8.796875" style="19"/>
-    <col min="5" max="5" width="13.09765625" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="19"/>
+    <col min="3" max="4" width="8.796875" style="5"/>
+    <col min="5" max="5" width="13.09765625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-    </row>
-    <row r="7" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="22" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+    </row>
+    <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-    </row>
-    <row r="8" spans="1:23" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+    </row>
+    <row r="8" spans="1:23" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-    </row>
-    <row r="9" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+    </row>
+    <row r="9" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -6776,31 +6372,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -6809,239 +6405,239 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -7056,17 +6652,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -7081,17 +6677,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -7106,17 +6702,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -7131,17 +6727,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -7156,17 +6752,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -7181,17 +6777,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -7206,17 +6802,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -7231,17 +6827,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -7256,17 +6852,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -7281,17 +6877,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -7306,17 +6902,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -7331,10 +6927,10 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="130">
@@ -7476,255 +7072,255 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B66727-C309-4595-850B-B99EFF6B3ECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5F8091-CE23-4833-94C0-9D665CB885FD}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.796875" style="4"/>
-    <col min="3" max="4" width="8.796875" style="19"/>
-    <col min="5" max="5" width="13.09765625" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="19"/>
+    <col min="3" max="4" width="8.796875" style="5"/>
+    <col min="5" max="5" width="13.09765625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-    </row>
-    <row r="7" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="22" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+    </row>
+    <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-    </row>
-    <row r="8" spans="1:23" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+    </row>
+    <row r="8" spans="1:23" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-    </row>
-    <row r="9" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+    </row>
+    <row r="9" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -7751,31 +7347,31 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -7784,239 +7380,239 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -8031,17 +7627,17 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -8056,17 +7652,17 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -8081,17 +7677,17 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -8106,17 +7702,17 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -8131,17 +7727,17 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -8156,17 +7752,17 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -8181,17 +7777,17 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -8206,17 +7802,17 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -8231,17 +7827,17 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -8256,17 +7852,17 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -8281,17 +7877,17 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -8306,10 +7902,10 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="130">
@@ -8451,1017 +8047,48 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5F8091-CE23-4833-94C0-9D665CB885FD}">
-  <dimension ref="A1:W33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C3AD96-4E33-42F0-BA72-D44146505A26}">
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.796875" style="4"/>
-    <col min="3" max="4" width="8.796875" style="19"/>
-    <col min="5" max="5" width="13.09765625" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-    </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-    </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-    </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-    </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-    </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-    </row>
-    <row r="7" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-    </row>
-    <row r="8" spans="1:23" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-    </row>
-    <row r="9" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="A1:W6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:W9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="M11:R12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C3AD96-4E33-42F0-BA72-D44146505A26}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="F1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="K1" s="14" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="K1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="P1" s="14" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="P1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="29"/>
+      <c r="U1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="29"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -9510,20 +8137,34 @@
       <c r="S2" t="s">
         <v>14</v>
       </c>
+      <c r="U2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>